--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>সহকারী কমিশনার (ভূমি)</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>ydra@gmail.com</t>
+  </si>
+  <si>
+    <t>testinguser53</t>
+  </si>
+  <si>
+    <t>userP@123</t>
   </si>
 </sst>
 </file>
@@ -419,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,8 +438,13 @@
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
@@ -495,14 +506,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M2" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>